--- a/Homework_29/contact diagram.xlsx
+++ b/Homework_29/contact diagram.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code_Academy\CA-homeworks\Homework_29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF27E5A-54BD-4544-8FE9-04DB7B239F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F5548-B84A-4A19-8DFB-B477A8261B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1530" windowWidth="15795" windowHeight="8145" xr2:uid="{09F238C8-9266-4F63-B0E4-9DDE9C337235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{09F238C8-9266-4F63-B0E4-9DDE9C337235}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
     <sheet name="Phone Nums" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
-    <sheet name="Relationships" sheetId="4" r:id="rId4"/>
-    <sheet name="Notes" sheetId="5" r:id="rId5"/>
+    <sheet name="Adress" sheetId="6" r:id="rId4"/>
+    <sheet name="Relationships" sheetId="4" r:id="rId5"/>
+    <sheet name="Notes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Numbers</t>
-  </si>
-  <si>
     <t>Realtionships</t>
   </si>
   <si>
@@ -107,16 +105,87 @@
   </si>
   <si>
     <t>Note 3</t>
+  </si>
+  <si>
+    <t>Toso</t>
+  </si>
+  <si>
+    <t>Najgolemiot</t>
+  </si>
+  <si>
+    <t>Maler</t>
+  </si>
+  <si>
+    <t>toso@k15.mk</t>
+  </si>
+  <si>
+    <t>Phone Nums</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Contact Lastname</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>K15 Crew</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Partizanska</t>
+  </si>
+  <si>
+    <t>Karpos</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Cacko</t>
+  </si>
+  <si>
+    <t>Mile</t>
+  </si>
+  <si>
+    <t>Duzi 50e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,14 +223,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D40398C-E8EB-498E-A1BD-14C60057517C}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
@@ -506,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -515,45 +587,90 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0C6C101B-8848-4F60-9A5F-0EA06BA165A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90294D6-C204-4F01-93D5-E7D19601A162}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>78995522</v>
+      </c>
+      <c r="D2">
+        <v>71262546</v>
+      </c>
+      <c r="E2">
+        <v>78995522</v>
+      </c>
+      <c r="F2">
+        <v>78995522</v>
       </c>
     </row>
   </sheetData>
@@ -563,55 +680,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258C2A92-F168-49F2-9D8A-57660B07C9D9}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C2533C-AAB7-4D78-8D8D-E5B4579A6C56}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF79D0F-64B3-4D91-8D10-74376CE9A0D8}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -620,24 +795,105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38424402-C451-431A-BC8B-C551C61D0B67}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF79D0F-64B3-4D91-8D10-74376CE9A0D8}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38424402-C451-431A-BC8B-C551C61D0B67}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
